--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/86.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/86.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2012343025336449</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.321214082056267</v>
+        <v>-1.305571126810271</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1644690813124864</v>
+        <v>-0.1698128573252123</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1275444650934054</v>
+        <v>-0.1397548472776749</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2015711050114268</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388942792897339</v>
+        <v>-1.381210378207887</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2319525040742865</v>
+        <v>-0.2388994128908301</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.132796258076404</v>
+        <v>-0.1412470164265836</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1954224024300514</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491809021094221</v>
+        <v>-1.485688499497132</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2792828830372738</v>
+        <v>-0.2821168363817276</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1375545548046755</v>
+        <v>-0.1461965794547641</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1813522786147826</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.642163313447908</v>
+        <v>-1.649311708900997</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2906055559822707</v>
+        <v>-0.2878446050423624</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1483165692827635</v>
+        <v>-0.155248877618398</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1620306718562964</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.736276553339792</v>
+        <v>-1.74695826517288</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2892550114981802</v>
+        <v>-0.2870298982076353</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1675527028804856</v>
+        <v>-0.1682433056274854</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1437124447895355</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.576636355127925</v>
+        <v>-1.588410182933013</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2223570680208345</v>
+        <v>-0.218159429759472</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1756355291117561</v>
+        <v>-0.1701720291555758</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1321722427183194</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.41961694323924</v>
+        <v>-1.424601547421602</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1449526184813099</v>
+        <v>-0.1451541051178553</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1539581951060347</v>
+        <v>-0.1515768566697626</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1280144799776079</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.149886198876676</v>
+        <v>-1.154870803059039</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.002689912647438954</v>
+        <v>-0.005269817624074625</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.132012212251586</v>
+        <v>-0.1276203875941327</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1256014121686</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7805538938485028</v>
+        <v>-0.7823950144911387</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0827345810554472</v>
+        <v>0.08212428095344736</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1190557454928623</v>
+        <v>-0.114278468139409</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1174175317683597</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4079919624432392</v>
+        <v>-0.399758751258605</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1275974787447988</v>
+        <v>0.1168398444109835</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07438995429578334</v>
+        <v>-0.07027115863132989</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.09656974447384915</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05992132963499878</v>
+        <v>0.07588403541290359</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1399056841511591</v>
+        <v>0.1315396085902523</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02719143158109848</v>
+        <v>0.02988814040500684</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.0574305310348155</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5999186560094901</v>
+        <v>0.6183430028686671</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05977240472972609</v>
+        <v>0.04961339011318337</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1770595279205128</v>
+        <v>0.1866272230602375</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.0009062077316830164</v>
       </c>
       <c r="E14" t="n">
-        <v>1.163209589626339</v>
+        <v>1.185126371518969</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08887217130950673</v>
+        <v>-0.09277195976032386</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3060489365599327</v>
+        <v>0.3174373116690206</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.07502433589301967</v>
       </c>
       <c r="E15" t="n">
-        <v>1.81175857146371</v>
+        <v>1.83057275116316</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2597518197251881</v>
+        <v>-0.2549614019389166</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4880132700817929</v>
+        <v>0.49880594556979</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1552514292955818</v>
       </c>
       <c r="E16" t="n">
-        <v>2.437449040389815</v>
+        <v>2.46682812807508</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4974345084923061</v>
+        <v>-0.4904817594833989</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6051441681268523</v>
+        <v>0.6210397116925754</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2364913131061077</v>
       </c>
       <c r="E17" t="n">
-        <v>3.048022171382651</v>
+        <v>3.081966829448187</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6313588796789974</v>
+        <v>-0.6268064497315441</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7919281203968023</v>
+        <v>0.8058233980779803</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3210182925234877</v>
       </c>
       <c r="E18" t="n">
-        <v>3.645400847777945</v>
+        <v>3.688867939492388</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7546395002829643</v>
+        <v>-0.7518581086697832</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9353909857614</v>
+        <v>0.943962928103125</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4097152416957565</v>
       </c>
       <c r="E19" t="n">
-        <v>4.17968500597271</v>
+        <v>4.224374157939244</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9133861490631944</v>
+        <v>-0.907267087514196</v>
       </c>
       <c r="G19" t="n">
-        <v>1.087497335824177</v>
+        <v>1.098627282421174</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4989186399463943</v>
       </c>
       <c r="E20" t="n">
-        <v>4.723284270987474</v>
+        <v>4.767601110690825</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.127366417122501</v>
+        <v>-1.123552771509047</v>
       </c>
       <c r="G20" t="n">
-        <v>1.246990069178862</v>
+        <v>1.256408839413314</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5809111464939776</v>
       </c>
       <c r="E21" t="n">
-        <v>5.181546645184805</v>
+        <v>5.23245560201861</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.284070458623549</v>
+        <v>-1.281894986968096</v>
       </c>
       <c r="G21" t="n">
-        <v>1.42273313778536</v>
+        <v>1.435042803239811</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6493298124814397</v>
       </c>
       <c r="E22" t="n">
-        <v>5.586505583679242</v>
+        <v>5.634494444331229</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.491080457096857</v>
+        <v>-1.485779022478768</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539377839816147</v>
+        <v>1.547697193838145</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6992350177526269</v>
       </c>
       <c r="E23" t="n">
-        <v>5.856891889634624</v>
+        <v>5.911680194245973</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.669759682414173</v>
+        <v>-1.66940051058381</v>
       </c>
       <c r="G23" t="n">
-        <v>1.699740761833013</v>
+        <v>1.71101525319101</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7283363203961589</v>
       </c>
       <c r="E24" t="n">
-        <v>6.162514996215997</v>
+        <v>6.213279408288801</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.842614045872809</v>
+        <v>-1.839097520045855</v>
       </c>
       <c r="G24" t="n">
-        <v>1.814801311685164</v>
+        <v>1.819850157983526</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7369881375448676</v>
       </c>
       <c r="E25" t="n">
-        <v>6.376092291002212</v>
+        <v>6.421042791577018</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.977778727912727</v>
+        <v>-1.97677129473</v>
       </c>
       <c r="G25" t="n">
-        <v>1.918016491375773</v>
+        <v>1.918634091718227</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7275378037408503</v>
       </c>
       <c r="E26" t="n">
-        <v>6.47641511542473</v>
+        <v>6.516510956097265</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.085426613607334</v>
+        <v>-2.080081377546517</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98168772857221</v>
+        <v>1.983274800847028</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7039764315148497</v>
       </c>
       <c r="E27" t="n">
-        <v>6.529689350165807</v>
+        <v>6.571442345421523</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.174130375322401</v>
+        <v>-2.168556641735357</v>
       </c>
       <c r="G27" t="n">
-        <v>2.064205266526097</v>
+        <v>2.064027140659006</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.6703489474822188</v>
       </c>
       <c r="E28" t="n">
-        <v>6.640419397380323</v>
+        <v>6.679659649871585</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.234638418329885</v>
+        <v>-2.225043712300478</v>
       </c>
       <c r="G28" t="n">
-        <v>2.093885124118089</v>
+        <v>2.097787832665088</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6307807232230674</v>
       </c>
       <c r="E29" t="n">
-        <v>6.577625649086522</v>
+        <v>6.614677289489512</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.295150111457596</v>
+        <v>-2.287276802127371</v>
       </c>
       <c r="G29" t="n">
-        <v>2.140740987451531</v>
+        <v>2.139069232387441</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.5887526865042931</v>
       </c>
       <c r="E30" t="n">
-        <v>6.541939153648531</v>
+        <v>6.58727948706361</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.331065834445859</v>
+        <v>-2.321168898461635</v>
       </c>
       <c r="G30" t="n">
-        <v>2.125633869854898</v>
+        <v>2.123465698439899</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.54706908628013</v>
       </c>
       <c r="E31" t="n">
-        <v>6.453166769673191</v>
+        <v>6.498444321020361</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.313231347015409</v>
+        <v>-2.305052157610139</v>
       </c>
       <c r="G31" t="n">
-        <v>2.10984198970363</v>
+        <v>2.102814778242087</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.5064009983262467</v>
       </c>
       <c r="E32" t="n">
-        <v>6.279225400410875</v>
+        <v>6.317780890347501</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.319064969162635</v>
+        <v>-2.311829700848137</v>
       </c>
       <c r="G32" t="n">
-        <v>2.045979486207284</v>
+        <v>2.045091776968011</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.467097502902989</v>
       </c>
       <c r="E33" t="n">
-        <v>6.093050288194833</v>
+        <v>6.140114938405275</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.34287616345322</v>
+        <v>-2.32951599339736</v>
       </c>
       <c r="G33" t="n">
-        <v>1.979563358599938</v>
+        <v>1.984521681916664</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.4284873649628416</v>
       </c>
       <c r="E34" t="n">
-        <v>5.855379279812443</v>
+        <v>5.897767395987704</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.383526092376254</v>
+        <v>-2.383517332087709</v>
       </c>
       <c r="G34" t="n">
-        <v>1.897075021607869</v>
+        <v>1.898903001817687</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.3906248387244374</v>
       </c>
       <c r="E35" t="n">
-        <v>5.630165401741685</v>
+        <v>5.676443086031127</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.371480695626258</v>
+        <v>-2.369290623489894</v>
       </c>
       <c r="G35" t="n">
-        <v>1.828639647490797</v>
+        <v>1.829854407502433</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.3532152320336739</v>
       </c>
       <c r="E36" t="n">
-        <v>5.440553336319645</v>
+        <v>5.486398846374178</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.331205999062587</v>
+        <v>-2.338492369060266</v>
       </c>
       <c r="G36" t="n">
-        <v>1.741305410885002</v>
+        <v>1.740211834864911</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3154691166485921</v>
       </c>
       <c r="E37" t="n">
-        <v>5.079655729112651</v>
+        <v>5.119934075796549</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.271879134960648</v>
+        <v>-2.274736449074556</v>
       </c>
       <c r="G37" t="n">
-        <v>1.652607489362298</v>
+        <v>1.654593154765934</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.2768272881599144</v>
       </c>
       <c r="E38" t="n">
-        <v>4.803274465695998</v>
+        <v>4.855060911432439</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.165450389421949</v>
+        <v>-2.173126592259901</v>
       </c>
       <c r="G38" t="n">
-        <v>1.550920980022871</v>
+        <v>1.560694541943414</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2359088527633418</v>
       </c>
       <c r="E39" t="n">
-        <v>4.50901929355044</v>
+        <v>4.559532577351609</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.147189567948954</v>
+        <v>-2.156728792150906</v>
       </c>
       <c r="G39" t="n">
-        <v>1.438415514329811</v>
+        <v>1.448796456256171</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.1919717661678189</v>
       </c>
       <c r="E40" t="n">
-        <v>4.241155950696148</v>
+        <v>4.284884391018864</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.118431730726371</v>
+        <v>-2.128008916178687</v>
       </c>
       <c r="G40" t="n">
-        <v>1.384326572754007</v>
+        <v>1.387086063645824</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1438072056097972</v>
       </c>
       <c r="E41" t="n">
-        <v>3.9481520397645</v>
+        <v>3.984133464916854</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.028695715011031</v>
+        <v>-2.037576457523984</v>
       </c>
       <c r="G41" t="n">
-        <v>1.263563075058767</v>
+        <v>1.266389728162766</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.09264811376472895</v>
       </c>
       <c r="E42" t="n">
-        <v>3.694804495030023</v>
+        <v>3.722856399000651</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.934137890475466</v>
+        <v>-1.943777127971645</v>
       </c>
       <c r="G42" t="n">
-        <v>1.158420631888158</v>
+        <v>1.161399129993612</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.04056380001600779</v>
       </c>
       <c r="E43" t="n">
-        <v>3.423232630024823</v>
+        <v>3.456324620005268</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.866176301963893</v>
+        <v>-1.876086378380936</v>
       </c>
       <c r="G43" t="n">
-        <v>1.065049096426456</v>
+        <v>1.067888889963273</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.009898981861000579</v>
       </c>
       <c r="E44" t="n">
-        <v>3.154891851444804</v>
+        <v>3.187978001232886</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.826349110140086</v>
+        <v>-1.836560686487901</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9307421926399467</v>
+        <v>0.9365458838013089</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.05637030942557366</v>
       </c>
       <c r="E45" t="n">
-        <v>2.896980196378146</v>
+        <v>2.926658593922047</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.74424403577188</v>
+        <v>-1.745950831990153</v>
       </c>
       <c r="G45" t="n">
-        <v>0.811298578418888</v>
+        <v>0.813279863678251</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.09776334145699764</v>
       </c>
       <c r="E46" t="n">
-        <v>2.649655350018667</v>
+        <v>2.674883520981478</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.696703409883802</v>
+        <v>-1.696228894254257</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7697864910981718</v>
+        <v>0.7734322311811708</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1330146821636838</v>
       </c>
       <c r="E47" t="n">
-        <v>2.349503043633929</v>
+        <v>2.372954336070105</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.649828565925179</v>
+        <v>-1.647429706911816</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6635840530135639</v>
+        <v>0.6638293410928366</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1628354576782461</v>
       </c>
       <c r="E48" t="n">
-        <v>2.158920046231435</v>
+        <v>2.177578000785157</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.615515975740733</v>
+        <v>-1.613493809134825</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6010560334723081</v>
+        <v>0.6004968350534899</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1878242194783616</v>
       </c>
       <c r="E49" t="n">
-        <v>1.961241215107125</v>
+        <v>1.983060173777664</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.567502294271201</v>
+        <v>-1.563111929661838</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5402508706783243</v>
+        <v>0.5383790890257794</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2092677026125625</v>
       </c>
       <c r="E50" t="n">
-        <v>1.850687833711609</v>
+        <v>1.867068113243514</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.494905783095038</v>
+        <v>-1.485768802142132</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4789960130723408</v>
+        <v>0.4754349557786145</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2281978713958912</v>
       </c>
       <c r="E51" t="n">
-        <v>1.67340149427302</v>
+        <v>1.687655943784562</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.438467624140962</v>
+        <v>-1.427080709079966</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4202976996735384</v>
+        <v>0.4181455887875389</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2454212857429184</v>
       </c>
       <c r="E52" t="n">
-        <v>1.555051456072052</v>
+        <v>1.570381961026593</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.399236131938246</v>
+        <v>-1.384558268480341</v>
       </c>
       <c r="G52" t="n">
-        <v>0.33970596515156</v>
+        <v>0.337083718780288</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.261995758530183</v>
       </c>
       <c r="E53" t="n">
-        <v>1.379642738478372</v>
+        <v>1.386883116961188</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.360832487003074</v>
+        <v>-1.347950482696987</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2723481065255781</v>
+        <v>0.2717086054617601</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2784486130970161</v>
       </c>
       <c r="E54" t="n">
-        <v>1.32560489858575</v>
+        <v>1.342528316007473</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.341726297685443</v>
+        <v>-1.326903889466538</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2222903577287734</v>
+        <v>0.213340262931503</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2957072025968149</v>
       </c>
       <c r="E55" t="n">
-        <v>1.204866221708055</v>
+        <v>1.215114299258143</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.304773940552635</v>
+        <v>-1.292916890006365</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1633963978857892</v>
+        <v>0.1654273247802432</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3137546594319037</v>
       </c>
       <c r="E56" t="n">
-        <v>1.173933642854063</v>
+        <v>1.185373119646333</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.253104298663467</v>
+        <v>-1.238849849151925</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1022203828767147</v>
+        <v>0.1062384352228954</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3328815452265054</v>
       </c>
       <c r="E57" t="n">
-        <v>1.082362346688452</v>
+        <v>1.097469464285084</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.243700128909924</v>
+        <v>-1.234160174683926</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0587328504889991</v>
+        <v>0.06540089012017912</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3530599578527476</v>
       </c>
       <c r="E58" t="n">
-        <v>1.027911313186102</v>
+        <v>1.043273939198644</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.205879043163025</v>
+        <v>-1.195812011576209</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01879716318634372</v>
+        <v>-0.01249413557789087</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3740185578511445</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9197144494093134</v>
+        <v>0.9336549885813096</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.122535117989684</v>
+        <v>-1.107985738763779</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09539128603541407</v>
+        <v>-0.08767931201923432</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3954109060134309</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8927546614106843</v>
+        <v>0.9182544013184046</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.103160279823325</v>
+        <v>-1.089592052914511</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1225438003820431</v>
+        <v>-0.1125307905745913</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4165486561642203</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7605662874040834</v>
+        <v>0.7866412862596218</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.074410472865242</v>
+        <v>-1.058672614493337</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1520893335496716</v>
+        <v>-0.1409389462794018</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.437446431176379</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7217231679935483</v>
+        <v>0.7459117847156328</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.069158679882243</v>
+        <v>-1.052941925736521</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2260363892099244</v>
+        <v>-0.2179112215840175</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4578628833637027</v>
       </c>
       <c r="E63" t="n">
-        <v>0.630208813703482</v>
+        <v>0.6580081293543837</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.103554492807871</v>
+        <v>-1.087493963807875</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2415961217147384</v>
+        <v>-0.2324649809541954</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4784427724473429</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5381834425815977</v>
+        <v>0.5765505863144964</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.090278275517238</v>
+        <v>-1.071592580049788</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2931518798528155</v>
+        <v>-0.2794464084234555</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4996105435103907</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4522566923354389</v>
+        <v>0.4946010070679729</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.057707522705247</v>
+        <v>-1.039611686666524</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.326918412051261</v>
+        <v>-0.3111075512748107</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5211857447125071</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4042882723567245</v>
+        <v>0.4446294011085318</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.072973785543788</v>
+        <v>-1.054712964070793</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3552929866499807</v>
+        <v>-0.3411524208895299</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5427437550420289</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3740506763940054</v>
+        <v>0.4229520671028104</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.09217779808351</v>
+        <v>-1.070786633503607</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.390261138427244</v>
+        <v>-0.3687984314908861</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5625937070140885</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2941889659174813</v>
+        <v>0.3433181241284681</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.106587012692688</v>
+        <v>-1.086737658896784</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3994448409190597</v>
+        <v>-0.3818512614236099</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5791428122450448</v>
       </c>
       <c r="E69" t="n">
-        <v>0.188874237072146</v>
+        <v>0.2433749122095859</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.147066846013132</v>
+        <v>-1.126624712692319</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4239152469226895</v>
+        <v>-0.4020262059437863</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5903885240473157</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1261418107981628</v>
+        <v>0.1806979677630572</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.195203171522301</v>
+        <v>-1.178316255302851</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4400867395775943</v>
+        <v>-0.4209455091057812</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5950682888418538</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0769265097498124</v>
+        <v>0.1246306610240723</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279605631561551</v>
+        <v>-1.268942900353644</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4996859026484873</v>
+        <v>-0.4834180468195826</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5919692935458282</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.01079317955198223</v>
+        <v>0.04312201630100329</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.31567611964745</v>
+        <v>-1.301481532107636</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4937843882650343</v>
+        <v>-0.4789283989400384</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5810539517174835</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.02398617410143324</v>
+        <v>0.0284032714965527</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.306174126671816</v>
+        <v>-1.291706510139002</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5436844518680209</v>
+        <v>-0.5276429034932071</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5630065635905415</v>
       </c>
       <c r="E74" t="n">
-        <v>0.006336104650558622</v>
+        <v>0.05558498680499994</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346542996337351</v>
+        <v>-1.332615597598173</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5277188259939344</v>
+        <v>-0.5176707750323006</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5389998712199442</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01156453686410267</v>
+        <v>0.06360795106454324</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.396117469216065</v>
+        <v>-1.38513644752434</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4792335489910383</v>
+        <v>-0.4665807722352235</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5101768716126056</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06402260472236132</v>
+        <v>0.1115530102738031</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342691389473534</v>
+        <v>-1.330958443014991</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4898539388043082</v>
+        <v>-0.4772931450782206</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4771714480100475</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1768974625824219</v>
+        <v>0.2257302310309542</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.340873629600352</v>
+        <v>-1.330667893444901</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4352087189058683</v>
+        <v>-0.4226041237370535</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4407807791389864</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2633892514397623</v>
+        <v>0.305596321651751</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.30675960595627</v>
+        <v>-1.29637866402991</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4355562103515045</v>
+        <v>-0.4290765169240517</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4012800285077116</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3565373995435555</v>
+        <v>0.393981792883</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.325045248246811</v>
+        <v>-1.30036313527</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4037067212964222</v>
+        <v>-0.3959334252604242</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3594806127237146</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4612827096334365</v>
+        <v>0.4887374539348837</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.339337659008716</v>
+        <v>-1.322084270718448</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3449091246274379</v>
+        <v>-0.3398354575115302</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.315914925970969</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5613850667942277</v>
+        <v>0.5830229795014947</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.28689857177564</v>
+        <v>-1.271328618934189</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2930336159574519</v>
+        <v>-0.2875744961455443</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2719026458233558</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6991800254699181</v>
+        <v>0.712212414729369</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.223050668760202</v>
+        <v>-1.203864176797571</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2599693668907335</v>
+        <v>-0.256379108635189</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2286461887771964</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8558884471152396</v>
+        <v>0.8636646632474193</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.165717500326399</v>
+        <v>-1.151538973315585</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2166307594082906</v>
+        <v>-0.2135573581769278</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1870030051998233</v>
       </c>
       <c r="E84" t="n">
-        <v>1.026416223941012</v>
+        <v>1.029983121427102</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.075593111818878</v>
+        <v>-1.05999395801561</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1646895485742136</v>
+        <v>-0.1690258914042125</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1477925562600491</v>
       </c>
       <c r="E85" t="n">
-        <v>1.122848020201259</v>
+        <v>1.118006500731806</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.005769231967351</v>
+        <v>-0.9852263553282661</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1305536242087683</v>
+        <v>-0.1327831176435858</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1113363495232475</v>
       </c>
       <c r="E86" t="n">
-        <v>1.289857081127941</v>
+        <v>1.276169130275672</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9295226005639173</v>
+        <v>-0.9084409661792866</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04528535565160934</v>
+        <v>-0.04926398669933554</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.07868558228750003</v>
       </c>
       <c r="E87" t="n">
-        <v>1.386880196865006</v>
+        <v>1.379337588427372</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.829405642922217</v>
+        <v>-0.8073107351624956</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01610629455479899</v>
+        <v>-0.01882490410007099</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.05079991150574747</v>
       </c>
       <c r="E88" t="n">
-        <v>1.474326857173801</v>
+        <v>1.466409016376803</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7008557087581606</v>
+        <v>-0.6817057179978021</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03524651689864177</v>
+        <v>0.03056706276727939</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.0292588688141802</v>
       </c>
       <c r="E89" t="n">
-        <v>1.571926691906775</v>
+        <v>1.561129636274505</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.570022259379923</v>
+        <v>-0.5470323421404746</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08042770507181145</v>
+        <v>0.07870192822835738</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.01537013046057127</v>
       </c>
       <c r="E90" t="n">
-        <v>1.633437057928667</v>
+        <v>1.618813216250126</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4406473980445031</v>
+        <v>-0.4238028232196895</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09413171645308051</v>
+        <v>0.0903720926189906</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.01071659498922562</v>
       </c>
       <c r="E91" t="n">
-        <v>1.678726289660564</v>
+        <v>1.659074042356933</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.281870088254364</v>
+        <v>-0.2618061073890967</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1088796622193493</v>
+        <v>0.1023138259545329</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01671968807121844</v>
       </c>
       <c r="E92" t="n">
-        <v>1.708474769512829</v>
+        <v>1.688768500429834</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1211509145033162</v>
+        <v>-0.1063372665729566</v>
       </c>
       <c r="G92" t="n">
-        <v>0.103927179094987</v>
+        <v>0.1073758126857133</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.03195009065340385</v>
       </c>
       <c r="E93" t="n">
-        <v>1.704509278897921</v>
+        <v>1.685521353475653</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03817391332091371</v>
+        <v>0.04583624570200256</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09973976117026082</v>
+        <v>0.1017487873433512</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.0525327380057703</v>
       </c>
       <c r="E94" t="n">
-        <v>1.653352113888662</v>
+        <v>1.63172296146994</v>
       </c>
       <c r="F94" t="n">
-        <v>0.149311313952793</v>
+        <v>0.1493989168382475</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06065427377663495</v>
+        <v>0.0631655564929979</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07259604015942452</v>
       </c>
       <c r="E95" t="n">
-        <v>1.564433725104231</v>
+        <v>1.537098704746239</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2345868827504064</v>
+        <v>0.2317908906563163</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01191056826164803</v>
+        <v>0.01476058213510181</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08832902976336049</v>
       </c>
       <c r="E96" t="n">
-        <v>1.440796852766083</v>
+        <v>1.415698626083362</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3141259225988396</v>
+        <v>0.306891384308387</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02871965001215924</v>
+        <v>-0.02275389351270629</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.0968554091800037</v>
       </c>
       <c r="E97" t="n">
-        <v>1.286630374847033</v>
+        <v>1.26011444146804</v>
       </c>
       <c r="F97" t="n">
-        <v>0.363149957347281</v>
+        <v>0.3581361522031005</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04966403987624452</v>
+        <v>-0.04362236087606432</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0976935476143818</v>
       </c>
       <c r="E98" t="n">
-        <v>1.153170298953251</v>
+        <v>1.131218475906438</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3820400595474577</v>
+        <v>0.378438120907186</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08695220806996179</v>
+        <v>-0.07820213986114595</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.09227620554756451</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9978693636675651</v>
+        <v>0.9825958005885692</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3773036635405499</v>
+        <v>0.3735849210530054</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.12747146268886</v>
+        <v>-0.1198500116543166</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08569291330537482</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8885964444477763</v>
+        <v>0.879069630654597</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3465419103131945</v>
+        <v>0.3443036565898315</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1422573697054924</v>
+        <v>-0.1331568899548585</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.08127910486695161</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7469805399181779</v>
+        <v>0.7431917151222699</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3473405566189216</v>
+        <v>0.3494839072163756</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1345001341984945</v>
+        <v>-0.1271006104737692</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.08489053747367857</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6342589871076627</v>
+        <v>0.6264740106869375</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3046618908735694</v>
+        <v>0.3045144260163877</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1944570090516602</v>
+        <v>-0.1928027745646606</v>
       </c>
     </row>
   </sheetData>
